--- a/curva_historica/curva_historica_CCINFS.xlsx
+++ b/curva_historica/curva_historica_CCINFS.xlsx
@@ -20,13 +20,13 @@
     <t xml:space="preserve">Rango de fechas del </t>
   </si>
   <si>
-    <t>14/03/1799</t>
+    <t>01/01/2005</t>
   </si>
   <si>
     <t xml:space="preserve">al </t>
   </si>
   <si>
-    <t>05/12/2025</t>
+    <t>11/12/2025</t>
   </si>
   <si>
     <t>Fecha de Proceso</t>
@@ -7514,7 +7514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{93e2cbd4-6d76-4300-973e-bf68eeb7b898}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{cbc8c487-872f-420b-a2e9-e14ff73dd713}">
   <dimension ref="A1:D2284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/curva_historica/curva_historica_CCINFS.xlsx
+++ b/curva_historica/curva_historica_CCINFS.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">al </t>
   </si>
   <si>
-    <t>11/12/2025</t>
+    <t>14/12/2025</t>
   </si>
   <si>
     <t>Fecha de Proceso</t>
@@ -7514,7 +7514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{cbc8c487-872f-420b-a2e9-e14ff73dd713}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{0163830d-eaf2-410d-a305-5747bfb2fa3b}">
   <dimension ref="A1:D2284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/curva_historica/curva_historica_CCINFS.xlsx
+++ b/curva_historica/curva_historica_CCINFS.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">al </t>
   </si>
   <si>
-    <t>16/12/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>Fecha de Proceso</t>
@@ -7514,7 +7514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{e6045977-749a-4a09-9cbb-afde64343bd0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{8653add7-b9ab-40aa-8114-efe337ff3012}">
   <dimension ref="A1:D2284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/curva_historica/curva_historica_CCINFS.xlsx
+++ b/curva_historica/curva_historica_CCINFS.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">al </t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>18/12/2025</t>
   </si>
   <si>
     <t>Fecha de Proceso</t>
@@ -7514,7 +7514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{8653add7-b9ab-40aa-8114-efe337ff3012}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{ea7cedd9-e064-41af-aeab-e45b6b556f9a}">
   <dimension ref="A1:D2284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/curva_historica/curva_historica_CCINFS.xlsx
+++ b/curva_historica/curva_historica_CCINFS.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">al </t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>26/12/2025</t>
   </si>
   <si>
     <t>Fecha de Proceso</t>
@@ -7514,7 +7514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{d8c9bc3a-dcfc-4b08-9044-d9cfcafdbf44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{9454e8aa-9e3e-49c0-b6b8-d7efe3dbce10}">
   <dimension ref="A1:D2284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
